--- a/vue/kaoqing/加班表/2024/加班统计.xlsx
+++ b/vue/kaoqing/加班表/2024/加班统计.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="2"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1月" sheetId="21" r:id="rId1"/>
     <sheet name="2月" sheetId="20" r:id="rId2"/>
     <sheet name="3月" sheetId="22" r:id="rId3"/>
-    <sheet name="10月 " sheetId="19" r:id="rId4"/>
+    <sheet name="4月 " sheetId="19" r:id="rId4"/>
     <sheet name="9月 " sheetId="18" r:id="rId5"/>
     <sheet name="8月" sheetId="17" r:id="rId6"/>
     <sheet name="7月" sheetId="16" r:id="rId7"/>
@@ -76,13 +76,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -90,7 +83,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -105,14 +106,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -129,6 +122,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -136,15 +167,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -158,32 +181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,16 +204,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,7 +228,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -246,7 +282,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,37 +312,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,25 +372,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,79 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,6 +439,26 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
@@ -461,13 +481,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,15 +520,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -510,30 +534,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -542,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1917,8 +1917,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="B2:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1991,9 +1991,15 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="5">
+        <v>45356</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2002,9 +2008,15 @@
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="B5" s="5">
+        <v>45357</v>
+      </c>
+      <c r="C5" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2013,9 +2025,15 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="5">
+        <v>45364</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2024,9 +2042,15 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5">
+        <v>45371</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2035,9 +2059,15 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5">
+        <v>45372</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.791666666666667</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2046,9 +2076,15 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5">
+        <v>45376</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2057,9 +2093,15 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5">
+        <v>45378</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2068,9 +2110,15 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="5">
+        <v>45379</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2159,8 +2207,8 @@
   <sheetPr/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2200,7 +2248,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>45208</v>
+        <v>45383</v>
       </c>
       <c r="C2" s="6">
         <v>0.75</v>
@@ -2217,7 +2265,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5">
-        <v>45210</v>
+        <v>45390</v>
       </c>
       <c r="C3" s="6">
         <v>0.75</v>
@@ -2234,7 +2282,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5">
-        <v>45211</v>
+        <v>45392</v>
       </c>
       <c r="C4" s="6">
         <v>0.75</v>
@@ -2251,13 +2299,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="5">
-        <v>45215</v>
+        <v>45393</v>
       </c>
       <c r="C5" s="6">
         <v>0.75</v>
       </c>
       <c r="D5" s="6">
-        <v>0.8125</v>
+        <v>0.791666666666667</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
@@ -2267,15 +2315,9 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
-        <v>45217</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.8125</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2284,15 +2326,9 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5">
-        <v>45218</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.8125</v>
-      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2301,15 +2337,9 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5">
-        <v>45222</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0.8125</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2318,15 +2348,9 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5">
-        <v>45224</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0.8125</v>
-      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2335,15 +2359,9 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5">
-        <v>45225</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0.8125</v>
-      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2352,15 +2370,9 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5">
-        <v>45229</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.75</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0.8125</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>

--- a/vue/kaoqing/加班表/2024/加班统计.xlsx
+++ b/vue/kaoqing/加班表/2024/加班统计.xlsx
@@ -54,8 +54,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -75,16 +75,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -98,6 +91,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -107,7 +182,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,99 +211,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,7 +228,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,67 +372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,55 +384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,37 +402,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,50 +437,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -501,6 +457,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,6 +499,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -542,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2208,7 +2208,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2315,9 +2315,15 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
+      <c r="B6" s="5">
+        <v>45397</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2326,9 +2332,15 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
+      <c r="B7" s="5">
+        <v>45399</v>
+      </c>
+      <c r="C7" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2337,9 +2349,15 @@
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
+      <c r="B8" s="5">
+        <v>45400</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0.770833333333333</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>

--- a/vue/kaoqing/加班表/2024/加班统计.xlsx
+++ b/vue/kaoqing/加班表/2024/加班统计.xlsx
@@ -54,9 +54,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -75,24 +75,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,6 +111,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -121,15 +127,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -145,21 +151,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -173,16 +173,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,18 +195,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,7 +228,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -240,7 +258,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,25 +288,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -288,13 +336,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,25 +384,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -336,79 +408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -437,17 +437,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -470,6 +470,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -481,6 +496,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -500,30 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -542,10 +542,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -554,133 +554,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2208,7 +2208,7 @@
   <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -2366,9 +2366,15 @@
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
+      <c r="B9" s="5">
+        <v>45404</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2377,9 +2383,15 @@
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
+      <c r="B10" s="5">
+        <v>45406</v>
+      </c>
+      <c r="C10" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2388,9 +2400,15 @@
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="B11" s="5">
+        <v>45407</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0.8125</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
